--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-90206.15341362941</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21841600.05041857</v>
+        <v>21059748.18946638</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.824349685974454e-11</v>
+        <v>349786.5001872049</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23349,49 +23351,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H12" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S12" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T12" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23428,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L13" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M13" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N13" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O13" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P13" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23507,49 +23509,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23586,49 +23588,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H15" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S15" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T15" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23665,49 +23667,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L16" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M16" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O16" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P16" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23744,49 +23746,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23823,49 +23825,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23902,49 +23904,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P19" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23981,49 +23983,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24060,49 +24062,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H21" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S21" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T21" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24139,49 +24141,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L22" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M22" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O22" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P22" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24218,49 +24220,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24297,49 +24299,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S24" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T24" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24376,49 +24378,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J25" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K25" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L25" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M25" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N25" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O25" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P25" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24455,49 +24457,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24534,49 +24536,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H27" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S27" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T27" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24613,49 +24615,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L28" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M28" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N28" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O28" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P28" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24692,49 +24694,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24771,49 +24773,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S30" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T30" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
@@ -24850,49 +24852,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J31" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K31" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L31" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M31" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N31" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O31" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P31" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24929,49 +24931,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25008,49 +25010,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H33" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S33" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T33" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25087,49 +25089,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L34" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M34" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N34" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O34" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P34" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25166,49 +25168,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25245,49 +25247,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H36" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S36" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T36" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U36" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V36" t="n">
         <v>202.9234074721264</v>
@@ -25324,49 +25326,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L37" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M37" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N37" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O37" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P37" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25403,49 +25405,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25482,49 +25484,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H39" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S39" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T39" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25561,49 +25563,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K40" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L40" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M40" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N40" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O40" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P40" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25640,49 +25642,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25719,49 +25721,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>93.11323406457203</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H42" t="n">
-        <v>52.84233230531351</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S42" t="n">
-        <v>80.51100496435802</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T42" t="n">
-        <v>140.4611363452985</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25798,49 +25800,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K43" t="n">
-        <v>20.964654452712</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L43" t="n">
-        <v>21.91875989570122</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M43" t="n">
-        <v>22.57543989148582</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N43" t="n">
-        <v>20.74890097560039</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O43" t="n">
-        <v>22.49918749842445</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P43" t="n">
-        <v>22.38080065798648</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25877,49 +25879,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.1018657343323</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>292.9048785094973</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>27.07619471985473</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>12.97091307001162</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>11.11174419326662</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>7.727993863709251</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>3.400615951243275</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>2.698324440689774</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>4.736819892972257</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>9.705809258733449</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>15.19580129441775</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>22.85848047371684</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>98.9072657730528</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>217.867929252686</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7558558253827</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25956,49 +25958,49 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>93.00953868489636</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>51.84085324370895</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>12.60217301993835</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>10.81417497546607</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>5.654704037195785</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>1.969571729742785</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>9.510414034237824</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>17.23470976831577</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>78.58490876731203</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>140.043171196518</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>182.9136920551073</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26035,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>164.5074652857436</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>141.5853770881884</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>96.15651836282449</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>14.49047107016879</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>10.86442027532886</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>8.993937537569462</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>8.948026908651901</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>7.445517414732592</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>10.21135956493829</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>11.86644107301737</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>17.33996518983377</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>42.65932590885844</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>166.918661879449</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>240.5345059345929</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3778621207188</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947825</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947825</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.766640581190586e-12</v>
+        <v>44978.3771961157</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5158.589754771392</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5803.661573692346</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>34047.74817237769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3880.2027054518</v>
       </c>
     </row>
     <row r="4">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>923.8712204931193</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>923.8712204931193</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>923.8712204931194</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1050.961769098912</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-29813.02963809941</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4234.718534278273</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4234.718534278274</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4234.718534278274</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4234.718534278272</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>872.4970991416333</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.20925546325286</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>42.37941378408804</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.829841679164815</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.1938060521135792</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.984816231208193</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>7.471707824108768</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>16.44904641557491</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>24.65285660154272</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>30.58404856891367</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>34.03064694818854</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>34.58129839375625</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>32.65413946305184</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>27.86955255149785</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>20.92887331018029</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>12.17416942107963</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>4.416355412538191</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.8483859931271933</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.01550448416908633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.103695379675676</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.001479061604555</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.570213730061651</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>9.796939357867265</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>16.74452979613755</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>19.80126947508588</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>13.23662425474067</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.438209625828375</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.926096197045998</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.4179651487804657</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.006822064452347106</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.08693472296652154</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.7729287187387103</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>2.614364214302303</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.146284913733073</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>10.10023417738314</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>12.92482235813176</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>13.62741298283392</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>13.3033835608678</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>12.28782793348616</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>10.51435958496911</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>7.279597574951182</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>3.908901270840141</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.51503512660747</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.3714483617660465</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.00474189397999209</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90206.15341362941</v>
+        <v>-102100.5496215908</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21059748.18946638</v>
+        <v>21067811.5872029</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349786.5001872049</v>
+        <v>346899.5251962601</v>
       </c>
     </row>
     <row r="11">
@@ -23524,19 +23524,19 @@
         <v>14.09296117214526</v>
       </c>
       <c r="L14" t="n">
-        <v>11.42645714324614</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M14" t="n">
-        <v>7.515868967310208</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N14" t="n">
-        <v>6.880166552921239</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O14" t="n">
-        <v>8.685614816471276</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P14" t="n">
-        <v>13.07601436734048</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q14" t="n">
         <v>17.72668497534603</v>
@@ -23600,10 +23600,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K15" t="n">
-        <v>7.679584047590227</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L15" t="n">
-        <v>2.722701059689189</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23615,7 +23615,7 @@
         <v>1.483625009529543</v>
       </c>
       <c r="P15" t="n">
-        <v>4.36409670170012</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q15" t="n">
         <v>11.11109056471342</v>
@@ -23688,7 +23688,7 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N16" t="n">
-        <v>9.054267004656877</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O16" t="n">
         <v>11.69730019489984</v>
@@ -23761,19 +23761,19 @@
         <v>14.09296117214526</v>
       </c>
       <c r="L17" t="n">
-        <v>11.42645714324615</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M17" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N17" t="n">
-        <v>6.880166552921242</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O17" t="n">
-        <v>8.685614816471279</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P17" t="n">
-        <v>13.07601436734049</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q17" t="n">
         <v>17.72668497534603</v>
@@ -23837,10 +23837,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K18" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L18" t="n">
-        <v>2.722701059689193</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23852,7 +23852,7 @@
         <v>1.483625009529543</v>
       </c>
       <c r="P18" t="n">
-        <v>4.364096701700124</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q18" t="n">
         <v>11.11109056471342</v>
@@ -23925,7 +23925,7 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N19" t="n">
-        <v>9.054267004656879</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O19" t="n">
         <v>11.69730019489984</v>
@@ -23998,19 +23998,19 @@
         <v>14.09296117214526</v>
       </c>
       <c r="L20" t="n">
-        <v>11.42645714324614</v>
+        <v>11.42645714324615</v>
       </c>
       <c r="M20" t="n">
-        <v>7.515868967310208</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N20" t="n">
-        <v>6.880166552921239</v>
+        <v>6.880166552921242</v>
       </c>
       <c r="O20" t="n">
-        <v>8.685614816471276</v>
+        <v>8.685614816471279</v>
       </c>
       <c r="P20" t="n">
-        <v>13.07601436734048</v>
+        <v>13.07601436734049</v>
       </c>
       <c r="Q20" t="n">
         <v>17.72668497534603</v>
@@ -24074,10 +24074,10 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K21" t="n">
-        <v>7.679584047590227</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L21" t="n">
-        <v>2.722701059689189</v>
+        <v>2.722701059689193</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24089,7 +24089,7 @@
         <v>1.483625009529543</v>
       </c>
       <c r="P21" t="n">
-        <v>4.36409670170012</v>
+        <v>4.364096701700124</v>
       </c>
       <c r="Q21" t="n">
         <v>11.11109056471342</v>
@@ -24162,7 +24162,7 @@
         <v>10.59596068035418</v>
       </c>
       <c r="N22" t="n">
-        <v>9.054267004656877</v>
+        <v>9.054267004656879</v>
       </c>
       <c r="O22" t="n">
         <v>11.69730019489984</v>
@@ -25879,49 +25879,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.1018657343323</v>
+        <v>400.1253022837963</v>
       </c>
       <c r="H44" t="n">
-        <v>292.9048785094973</v>
+        <v>293.1448980716953</v>
       </c>
       <c r="I44" t="n">
-        <v>27.07619471985473</v>
+        <v>27.97973229306479</v>
       </c>
       <c r="J44" t="n">
-        <v>12.97091307001162</v>
+        <v>14.96006091008002</v>
       </c>
       <c r="K44" t="n">
-        <v>11.11174419326662</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L44" t="n">
-        <v>7.727993863709251</v>
+        <v>11.42645714324614</v>
       </c>
       <c r="M44" t="n">
-        <v>3.400615951243275</v>
+        <v>7.515868967310208</v>
       </c>
       <c r="N44" t="n">
-        <v>2.698324440689774</v>
+        <v>6.880166552921239</v>
       </c>
       <c r="O44" t="n">
-        <v>4.736819892972257</v>
+        <v>8.685614816471276</v>
       </c>
       <c r="P44" t="n">
-        <v>9.705809258733449</v>
+        <v>13.07601436734048</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.19580129441775</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R44" t="n">
-        <v>22.85848047371684</v>
+        <v>24.33067662398352</v>
       </c>
       <c r="S44" t="n">
-        <v>98.9072657730528</v>
+        <v>99.44132614396322</v>
       </c>
       <c r="T44" t="n">
-        <v>217.867929252686</v>
+        <v>217.9705227479646</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7558558253827</v>
+        <v>255.7577307493399</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25958,22 +25958,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>93.00953868489636</v>
+        <v>93.0220783443572</v>
       </c>
       <c r="H45" t="n">
-        <v>51.84085324370895</v>
+        <v>51.96195995481764</v>
       </c>
       <c r="I45" t="n">
-        <v>12.60217301993835</v>
+        <v>13.03391129523499</v>
       </c>
       <c r="J45" t="n">
-        <v>10.81417497546607</v>
+        <v>11.9988978019839</v>
       </c>
       <c r="K45" t="n">
-        <v>5.654704037195785</v>
+        <v>7.679584047590227</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>2.722701059689189</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25982,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P45" t="n">
-        <v>1.969571729742785</v>
+        <v>4.36409670170012</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.510414034237824</v>
+        <v>11.11109056471342</v>
       </c>
       <c r="R45" t="n">
-        <v>17.23470976831577</v>
+        <v>18.01326862501631</v>
       </c>
       <c r="S45" t="n">
-        <v>78.58490876731203</v>
+        <v>78.81782744194658</v>
       </c>
       <c r="T45" t="n">
-        <v>140.043171196518</v>
+        <v>140.0937148239062</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9136920551073</v>
+        <v>182.9145170327034</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -26037,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5074652857436</v>
+        <v>164.5179781150012</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5853770881884</v>
+        <v>141.6788456974052</v>
       </c>
       <c r="I46" t="n">
-        <v>96.15651836282449</v>
+        <v>96.47266780995034</v>
       </c>
       <c r="J46" t="n">
-        <v>14.49047107016879</v>
+        <v>15.23372809867477</v>
       </c>
       <c r="K46" t="n">
-        <v>10.86442027532886</v>
+        <v>12.08581989270142</v>
       </c>
       <c r="L46" t="n">
-        <v>8.993937537569462</v>
+        <v>10.55690853463604</v>
       </c>
       <c r="M46" t="n">
-        <v>8.948026908651901</v>
+        <v>10.59596068035418</v>
       </c>
       <c r="N46" t="n">
-        <v>7.445517414732592</v>
+        <v>9.054267004656877</v>
       </c>
       <c r="O46" t="n">
-        <v>10.21135956493829</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P46" t="n">
-        <v>11.86644107301737</v>
+        <v>13.13791998612571</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.33996518983377</v>
+        <v>18.22027128338765</v>
       </c>
       <c r="R46" t="n">
-        <v>42.65932590885844</v>
+        <v>43.13202094074613</v>
       </c>
       <c r="S46" t="n">
-        <v>166.918661879449</v>
+        <v>167.1018718220549</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5345059345929</v>
+        <v>240.579424386875</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3778621207188</v>
+        <v>277.3784355477692</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39979.07059947826</v>
+        <v>39979.07059947825</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39979.07059947825</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39979.07059947826</v>
+        <v>39979.07059947825</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44978.3771961157</v>
+        <v>39979.07059947826</v>
       </c>
     </row>
   </sheetData>
@@ -26325,16 +26325,16 @@
         <v>5158.589754771393</v>
       </c>
       <c r="F2" t="n">
-        <v>5158.589754771392</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="G2" t="n">
         <v>5158.589754771392</v>
       </c>
       <c r="H2" t="n">
-        <v>5158.589754771392</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="I2" t="n">
-        <v>5158.589754771392</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="J2" t="n">
         <v>5158.589754771393</v>
@@ -26343,19 +26343,19 @@
         <v>5158.589754771393</v>
       </c>
       <c r="L2" t="n">
-        <v>5158.589754771392</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="M2" t="n">
-        <v>5158.589754771392</v>
+        <v>5158.589754771393</v>
       </c>
       <c r="N2" t="n">
         <v>5158.589754771392</v>
       </c>
       <c r="O2" t="n">
+        <v>5158.589754771393</v>
+      </c>
+      <c r="P2" t="n">
         <v>5158.589754771392</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5803.661573692346</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3880.2027054518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26481,13 +26481,13 @@
         <v>923.8712204931193</v>
       </c>
       <c r="F5" t="n">
+        <v>923.8712204931193</v>
+      </c>
+      <c r="G5" t="n">
         <v>923.8712204931194</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>923.8712204931193</v>
-      </c>
-      <c r="H5" t="n">
-        <v>923.8712204931194</v>
       </c>
       <c r="I5" t="n">
         <v>923.8712204931194</v>
@@ -26511,7 +26511,7 @@
         <v>923.8712204931194</v>
       </c>
       <c r="P5" t="n">
-        <v>1050.961769098912</v>
+        <v>923.8712204931194</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-35083.70667002791</v>
       </c>
       <c r="E6" t="n">
-        <v>-29813.02963809941</v>
+        <v>-31204.65393619268</v>
       </c>
       <c r="F6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="G6" t="n">
-        <v>4234.718534278273</v>
+        <v>2843.094236185007</v>
       </c>
       <c r="H6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="I6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="J6" t="n">
-        <v>4234.718534278274</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="K6" t="n">
-        <v>4234.718534278274</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="L6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="M6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="N6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185007</v>
       </c>
       <c r="O6" t="n">
-        <v>4234.718534278272</v>
+        <v>2843.094236185009</v>
       </c>
       <c r="P6" t="n">
-        <v>872.4970991416333</v>
+        <v>2843.094236185007</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>42.37941378408804</v>
       </c>
       <c r="P3" t="n">
-        <v>48.20925546325286</v>
+        <v>42.37941378408804</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.829841679164815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31998,7 +31998,7 @@
         <v>6.568170250898712</v>
       </c>
       <c r="J14" t="n">
-        <v>14.45989857550651</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K14" t="n">
         <v>21.67163962266408</v>
@@ -32007,7 +32007,7 @@
         <v>26.88558528937678</v>
       </c>
       <c r="M14" t="n">
-        <v>29.91539393212161</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N14" t="n">
         <v>30.39945628152478</v>
@@ -32016,7 +32016,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P14" t="n">
-        <v>24.49934744289082</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q14" t="n">
         <v>18.39798962925201</v>
@@ -32028,7 +32028,7 @@
         <v>3.882295041627765</v>
       </c>
       <c r="T14" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U14" t="n">
         <v>0.013629560211968</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8803723504958669</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I15" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J15" t="n">
-        <v>8.612216531349441</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K15" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L15" t="n">
-        <v>19.79238565454037</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -32101,7 +32101,7 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R15" t="n">
-        <v>5.659650769127836</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S15" t="n">
         <v>1.693177522411441</v>
@@ -32110,7 +32110,7 @@
         <v>0.3674215213922349</v>
       </c>
       <c r="U15" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I16" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J16" t="n">
-        <v>5.403027885227093</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K16" t="n">
-        <v>8.878834560010574</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L16" t="n">
         <v>11.36185136106518</v>
@@ -32168,7 +32168,7 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N16" t="n">
-        <v>11.69463397094352</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O16" t="n">
         <v>10.80188730352461</v>
@@ -32177,7 +32177,7 @@
         <v>9.242880671860771</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.399291481397294</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R16" t="n">
         <v>3.436206238952449</v>
@@ -32235,7 +32235,7 @@
         <v>6.568170250898712</v>
       </c>
       <c r="J17" t="n">
-        <v>14.4598985755065</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K17" t="n">
         <v>21.67163962266408</v>
@@ -32244,7 +32244,7 @@
         <v>26.88558528937678</v>
       </c>
       <c r="M17" t="n">
-        <v>29.9153939321216</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N17" t="n">
         <v>30.39945628152478</v>
@@ -32253,7 +32253,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P17" t="n">
-        <v>24.49934744289081</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q17" t="n">
         <v>18.39798962925201</v>
@@ -32265,7 +32265,7 @@
         <v>3.882295041627765</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7457924978486244</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U17" t="n">
         <v>0.013629560211968</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09115572021483087</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I18" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J18" t="n">
-        <v>8.612216531349439</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K18" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L18" t="n">
-        <v>19.79238565454036</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -32338,7 +32338,7 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R18" t="n">
-        <v>5.659650769127835</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S18" t="n">
         <v>1.693177522411441</v>
@@ -32347,7 +32347,7 @@
         <v>0.3674215213922349</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0764218937090112</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6794601095219365</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I19" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J19" t="n">
-        <v>5.403027885227092</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K19" t="n">
-        <v>8.878834560010572</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L19" t="n">
         <v>11.36185136106518</v>
@@ -32405,7 +32405,7 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N19" t="n">
-        <v>11.69463397094351</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O19" t="n">
         <v>10.80188730352461</v>
@@ -32414,7 +32414,7 @@
         <v>9.242880671860771</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.399291481397293</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R19" t="n">
         <v>3.436206238952449</v>
@@ -32472,7 +32472,7 @@
         <v>6.568170250898712</v>
       </c>
       <c r="J20" t="n">
-        <v>14.45989857550651</v>
+        <v>14.4598985755065</v>
       </c>
       <c r="K20" t="n">
         <v>21.67163962266408</v>
@@ -32481,7 +32481,7 @@
         <v>26.88558528937678</v>
       </c>
       <c r="M20" t="n">
-        <v>29.91539393212161</v>
+        <v>29.9153939321216</v>
       </c>
       <c r="N20" t="n">
         <v>30.39945628152478</v>
@@ -32490,7 +32490,7 @@
         <v>28.70534453955282</v>
       </c>
       <c r="P20" t="n">
-        <v>24.49934744289082</v>
+        <v>24.49934744289081</v>
       </c>
       <c r="Q20" t="n">
         <v>18.39798962925201</v>
@@ -32502,7 +32502,7 @@
         <v>3.882295041627765</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7457924978486246</v>
+        <v>0.7457924978486244</v>
       </c>
       <c r="U20" t="n">
         <v>0.013629560211968</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09115572021483088</v>
+        <v>0.09115572021483087</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8803723504958669</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I21" t="n">
         <v>3.138475454765011</v>
       </c>
       <c r="J21" t="n">
-        <v>8.612216531349441</v>
+        <v>8.612216531349439</v>
       </c>
       <c r="K21" t="n">
         <v>14.71964978574311</v>
       </c>
       <c r="L21" t="n">
-        <v>19.79238565454037</v>
+        <v>19.79238565454036</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -32575,7 +32575,7 @@
         <v>11.63594772426508</v>
       </c>
       <c r="R21" t="n">
-        <v>5.659650769127836</v>
+        <v>5.659650769127835</v>
       </c>
       <c r="S21" t="n">
         <v>1.693177522411441</v>
@@ -32584,7 +32584,7 @@
         <v>0.3674215213922349</v>
       </c>
       <c r="U21" t="n">
-        <v>0.005997086856238877</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07642189370901122</v>
+        <v>0.0764218937090112</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6794601095219366</v>
+        <v>0.6794601095219365</v>
       </c>
       <c r="I22" t="n">
         <v>2.298214767176447</v>
       </c>
       <c r="J22" t="n">
-        <v>5.403027885227093</v>
+        <v>5.403027885227092</v>
       </c>
       <c r="K22" t="n">
-        <v>8.878834560010574</v>
+        <v>8.878834560010572</v>
       </c>
       <c r="L22" t="n">
         <v>11.36185136106518</v>
@@ -32642,7 +32642,7 @@
         <v>11.97947921113164</v>
       </c>
       <c r="N22" t="n">
-        <v>11.69463397094352</v>
+        <v>11.69463397094351</v>
       </c>
       <c r="O22" t="n">
         <v>10.80188730352461</v>
@@ -32651,7 +32651,7 @@
         <v>9.242880671860771</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.399291481397294</v>
+        <v>6.399291481397293</v>
       </c>
       <c r="R22" t="n">
         <v>3.436206238952449</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1938060521135792</v>
+        <v>0.1703695026496</v>
       </c>
       <c r="H44" t="n">
-        <v>1.984816231208193</v>
+        <v>1.744796669010217</v>
       </c>
       <c r="I44" t="n">
-        <v>7.471707824108768</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44904641557491</v>
+        <v>14.45989857550651</v>
       </c>
       <c r="K44" t="n">
-        <v>24.65285660154272</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L44" t="n">
-        <v>30.58404856891367</v>
+        <v>26.88558528937678</v>
       </c>
       <c r="M44" t="n">
-        <v>34.03064694818854</v>
+        <v>29.91539393212161</v>
       </c>
       <c r="N44" t="n">
-        <v>34.58129839375625</v>
+        <v>30.39945628152478</v>
       </c>
       <c r="O44" t="n">
-        <v>32.65413946305184</v>
+        <v>28.70534453955282</v>
       </c>
       <c r="P44" t="n">
-        <v>27.86955255149785</v>
+        <v>24.49934744289082</v>
       </c>
       <c r="Q44" t="n">
-        <v>20.92887331018029</v>
+        <v>18.39798962925201</v>
       </c>
       <c r="R44" t="n">
-        <v>12.17416942107963</v>
+        <v>10.70197327081295</v>
       </c>
       <c r="S44" t="n">
-        <v>4.416355412538191</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8483859931271933</v>
+        <v>0.7457924978486246</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01550448416908633</v>
+        <v>0.013629560211968</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.103695379675676</v>
+        <v>0.09115572021483088</v>
       </c>
       <c r="H45" t="n">
-        <v>1.001479061604555</v>
+        <v>0.8803723504958669</v>
       </c>
       <c r="I45" t="n">
-        <v>3.570213730061651</v>
+        <v>3.138475454765011</v>
       </c>
       <c r="J45" t="n">
-        <v>9.796939357867265</v>
+        <v>8.612216531349441</v>
       </c>
       <c r="K45" t="n">
-        <v>16.74452979613755</v>
+        <v>14.71964978574311</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>19.79238565454037</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -34462,25 +34462,25 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P45" t="n">
-        <v>19.80126947508588</v>
+        <v>17.40674450312854</v>
       </c>
       <c r="Q45" t="n">
-        <v>13.23662425474067</v>
+        <v>11.63594772426508</v>
       </c>
       <c r="R45" t="n">
-        <v>6.438209625828375</v>
+        <v>5.659650769127836</v>
       </c>
       <c r="S45" t="n">
-        <v>1.926096197045998</v>
+        <v>1.693177522411441</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4179651487804657</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U45" t="n">
-        <v>0.006822064452347106</v>
+        <v>0.005997086856238877</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.08693472296652154</v>
+        <v>0.07642189370901122</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7729287187387103</v>
+        <v>0.6794601095219366</v>
       </c>
       <c r="I46" t="n">
-        <v>2.614364214302303</v>
+        <v>2.298214767176447</v>
       </c>
       <c r="J46" t="n">
-        <v>6.146284913733073</v>
+        <v>5.403027885227093</v>
       </c>
       <c r="K46" t="n">
-        <v>10.10023417738314</v>
+        <v>8.878834560010574</v>
       </c>
       <c r="L46" t="n">
-        <v>12.92482235813176</v>
+        <v>11.36185136106518</v>
       </c>
       <c r="M46" t="n">
-        <v>13.62741298283392</v>
+        <v>11.97947921113164</v>
       </c>
       <c r="N46" t="n">
-        <v>13.3033835608678</v>
+        <v>11.69463397094352</v>
       </c>
       <c r="O46" t="n">
-        <v>12.28782793348616</v>
+        <v>10.80188730352461</v>
       </c>
       <c r="P46" t="n">
-        <v>10.51435958496911</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.279597574951182</v>
+        <v>6.399291481397294</v>
       </c>
       <c r="R46" t="n">
-        <v>3.908901270840141</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S46" t="n">
-        <v>1.51503512660747</v>
+        <v>1.331825184001586</v>
       </c>
       <c r="T46" t="n">
-        <v>0.3714483617660465</v>
+        <v>0.3265299094839569</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00474189397999209</v>
+        <v>0.004168466929582434</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
